--- a/output/fit_clients/fit_round_124.xlsx
+++ b/output/fit_clients/fit_round_124.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2405902175.286823</v>
+        <v>1780132869.995816</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07006879921710196</v>
+        <v>0.07271521735310667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04078491635205612</v>
+        <v>0.03727938822926865</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1202951137.792781</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2321391107.476773</v>
+        <v>1759412792.222196</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1462492526438942</v>
+        <v>0.1808913088270161</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04366898273421074</v>
+        <v>0.04451394306575876</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1160695643.515603</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4749309051.004122</v>
+        <v>5050339367.414055</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1663397741175606</v>
+        <v>0.153000540780949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02340184669795745</v>
+        <v>0.03658594976122954</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2374654592.709213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3098031026.860969</v>
+        <v>3231666874.422514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.068203936930299</v>
+        <v>0.1021932412139857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04200160500493744</v>
+        <v>0.03681262350385914</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1549015576.766597</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1907889277.55455</v>
+        <v>2768413011.718584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1242229963909567</v>
+        <v>0.1491814939023987</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04317015854839546</v>
+        <v>0.04599826127810906</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>953944678.2744162</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2276772185.770022</v>
+        <v>3131125894.347153</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06482391231604058</v>
+        <v>0.09522842626988642</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04161762967877666</v>
+        <v>0.03920445417399206</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1138386127.321595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2545662075.031273</v>
+        <v>3037757096.427558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1979580037772059</v>
+        <v>0.1697218482661584</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02925682105499699</v>
+        <v>0.03015570448979567</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1272831048.53826</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1880791785.81073</v>
+        <v>2120022533.196615</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1547744710384461</v>
+        <v>0.1737535523017253</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03682849583559981</v>
+        <v>0.02447118004059538</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>940395936.0097053</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4027604812.94665</v>
+        <v>4118770675.331749</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1782572254458453</v>
+        <v>0.1866377598691512</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04145605179818476</v>
+        <v>0.03744018950353999</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2013802430.443385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3988587571.398698</v>
+        <v>3802240954.475003</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1357147504031455</v>
+        <v>0.1669385913090044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03941725267658407</v>
+        <v>0.04534210697019574</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>52</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1994293797.545144</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2983396204.1002</v>
+        <v>2368851139.703829</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1235221746835232</v>
+        <v>0.1299861044762332</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03938083055584546</v>
+        <v>0.04779518936321055</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>44</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1491698118.496997</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4846721719.811577</v>
+        <v>5120781569.130237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08486886344787127</v>
+        <v>0.07487392540488526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02015978762618766</v>
+        <v>0.02752147559960691</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>42</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2423360871.762846</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2744059116.913284</v>
+        <v>3882198656.545926</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1142658378091385</v>
+        <v>0.1551144450276419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0316563130445037</v>
+        <v>0.04320135128612185</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1372029611.38671</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1645834213.211386</v>
+        <v>1275245302.98245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07021832872906021</v>
+        <v>0.07386984062914502</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03502220486902406</v>
+        <v>0.04744331866241636</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>822917225.117195</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2205504743.949906</v>
+        <v>2131544483.38684</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09528131469682528</v>
+        <v>0.08611239141338647</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05033093015159006</v>
+        <v>0.03314621550722145</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1102752429.052092</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3300221453.569478</v>
+        <v>3895745899.85964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1057624818744853</v>
+        <v>0.1472157540308699</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05148596130022091</v>
+        <v>0.03406485808853247</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1650110795.945592</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2491729496.396181</v>
+        <v>2458779772.815862</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1713424659238645</v>
+        <v>0.1670583102818432</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02763182118228514</v>
+        <v>0.02268522230409472</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1245864815.254462</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1216481545.451988</v>
+        <v>1065301862.274555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1249474518768826</v>
+        <v>0.1490477568903894</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0201897825345963</v>
+        <v>0.01767626795574015</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>608240854.6079171</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2674584812.029668</v>
+        <v>2043527840.504695</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1586745161698828</v>
+        <v>0.1101510125851438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03145753257960306</v>
+        <v>0.02947494543957384</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>18</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1337292360.4627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2564990557.480446</v>
+        <v>1967600616.971861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06207461325619573</v>
+        <v>0.08379509882019588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04316871991258108</v>
+        <v>0.04589035716946583</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1282495260.623989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3472596122.880769</v>
+        <v>4029438515.302964</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1120773567589238</v>
+        <v>0.1116440671086877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03461544994475686</v>
+        <v>0.04457431722764393</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1736298094.620387</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979555614.6066785</v>
+        <v>1183950654.518276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1825525934094046</v>
+        <v>0.1450977875562345</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03526312491686691</v>
+        <v>0.04013430406701034</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489777880.874907</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2660330120.68779</v>
+        <v>2885387960.115119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1204898836390808</v>
+        <v>0.1485276479084148</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02598824006545453</v>
+        <v>0.02560453064208144</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>36</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1330165118.37361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>964976104.4215453</v>
+        <v>1362316526.348317</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0949157352830399</v>
+        <v>0.1124452921000198</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02674869615576295</v>
+        <v>0.02903874023603902</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>482488124.198502</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1443447735.833174</v>
+        <v>1411656762.482276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1125792206392277</v>
+        <v>0.08533426946750712</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02657698528758983</v>
+        <v>0.0367156935737328</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>721723948.4979426</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3037772750.380166</v>
+        <v>3310564628.924637</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1203821275398343</v>
+        <v>0.1195047538626681</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02261234637067073</v>
+        <v>0.01961965322358097</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1518886433.080387</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2714141655.136057</v>
+        <v>2587586976.149356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1389971656101937</v>
+        <v>0.1038712730709896</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04472292933833667</v>
+        <v>0.04606199266509179</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1357070813.91657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5667607043.876093</v>
+        <v>4340936821.237456</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1431927720908192</v>
+        <v>0.1225885764708382</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03439666121023584</v>
+        <v>0.02891732413891367</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2833803423.163549</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1750441581.175449</v>
+        <v>2188133346.221957</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244678964315548</v>
+        <v>0.1302523837056116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03560644366551317</v>
+        <v>0.0357978145238276</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>875220799.5757858</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1212369933.898771</v>
+        <v>1021505323.409345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1007577048886177</v>
+        <v>0.0696531445151177</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04247218788153049</v>
+        <v>0.04080737551506154</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>606184915.440333</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1358284207.393192</v>
+        <v>1555785236.984076</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09828365147602514</v>
+        <v>0.1160352490155022</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03062718552251613</v>
+        <v>0.03804908901179965</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>679142142.6445639</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2792780383.958035</v>
+        <v>2417404027.20817</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1794314666852624</v>
+        <v>0.1660111695941526</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04178601271978041</v>
+        <v>0.05862213713172786</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>37</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1396390205.206342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1139219089.595114</v>
+        <v>1085303648.557556</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1148691028091125</v>
+        <v>0.1175807792101514</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01806941533929897</v>
+        <v>0.01894926335533365</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>569609559.7530087</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1165609676.447259</v>
+        <v>1268139125.035542</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1027432821261926</v>
+        <v>0.09697174439223949</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03897408746696155</v>
+        <v>0.03024075563529156</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>582804820.4329516</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2151363645.915144</v>
+        <v>2655694358.163275</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228569635674819</v>
+        <v>0.1636149642829245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02901008892450123</v>
+        <v>0.02618675784108145</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1075681872.818105</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1814755674.051753</v>
+        <v>2002865865.190414</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08212978534119707</v>
+        <v>0.08493148781640798</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0280709119945351</v>
+        <v>0.03902996403240171</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>907377838.7712085</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2144202452.376407</v>
+        <v>1825452283.424807</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08985771572966209</v>
+        <v>0.1021076162525071</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02555472521529698</v>
+        <v>0.02712525374317573</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1072101184.393604</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2214964763.568408</v>
+        <v>2138076611.625192</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1936825722736015</v>
+        <v>0.1479872405878726</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02075308066194382</v>
+        <v>0.02904543930832624</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1107482343.622346</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1600557654.447757</v>
+        <v>1497547390.51774</v>
       </c>
       <c r="F40" t="n">
-        <v>0.110317139699859</v>
+        <v>0.1594469965965849</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03732741620266448</v>
+        <v>0.04354587835998962</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>800278768.1751064</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2027598122.459017</v>
+        <v>2126195149.744245</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1462040913904734</v>
+        <v>0.1185191601919844</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03768281347368039</v>
+        <v>0.04600889854018807</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>30</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1013799132.734317</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3563132670.719159</v>
+        <v>3087625525.377711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09139401366871905</v>
+        <v>0.1173761893258348</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03119070307908041</v>
+        <v>0.02826796355652681</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1781566334.512922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2296788324.530277</v>
+        <v>2649990974.927784</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1364443944093913</v>
+        <v>0.2030679682110646</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0209106029698468</v>
+        <v>0.0220985352222072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>40</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1148394231.309851</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2324138705.429552</v>
+        <v>1571869674.455915</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09858147611927123</v>
+        <v>0.06816807865184756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03025473211569164</v>
+        <v>0.03310069641929093</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1162069523.67827</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321740097.462211</v>
+        <v>2136321218.361295</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1737814941953596</v>
+        <v>0.1773870265333303</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04063002545145187</v>
+        <v>0.0376538660877855</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1160870071.967119</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4154386701.651917</v>
+        <v>5144632371.165964</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1372539123911701</v>
+        <v>0.1311147724650829</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05570550764308778</v>
+        <v>0.05306196280504032</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>44</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2077193329.148532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3529910850.222375</v>
+        <v>3382238873.284842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.201150982834814</v>
+        <v>0.2028287462858974</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0455961687043969</v>
+        <v>0.05322719727740174</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>33</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1764955397.590874</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3452947484.84865</v>
+        <v>3294292903.818191</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046224795442019</v>
+        <v>0.08635270618846759</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03916025603288703</v>
+        <v>0.02884809715951978</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1726473808.522393</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1286606681.063682</v>
+        <v>1812981830.977398</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1369134798085342</v>
+        <v>0.1363213387002174</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02940239217324441</v>
+        <v>0.0280725137942802</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>643303405.6846392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3411454700.719535</v>
+        <v>3146567220.3515</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1562002679868752</v>
+        <v>0.1547858364555946</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04868178014406454</v>
+        <v>0.03730820291625538</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>42</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1705727380.862949</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1313914302.855491</v>
+        <v>1201994074.075113</v>
       </c>
       <c r="F51" t="n">
-        <v>0.180271600934054</v>
+        <v>0.1474119284673675</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03756784024028285</v>
+        <v>0.05324637304096402</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>656957184.4749477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3991146419.039221</v>
+        <v>4478355678.128678</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1337070931303529</v>
+        <v>0.1031045194439165</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05223878939142526</v>
+        <v>0.06176034266008088</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>51</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1995573266.470204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3517351125.727036</v>
+        <v>3052200644.138022</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1954827100967061</v>
+        <v>0.1379464172670491</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03238932929062213</v>
+        <v>0.0260793887792165</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>35</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1758675559.529273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3131561729.45669</v>
+        <v>4517089670.106273</v>
       </c>
       <c r="F54" t="n">
-        <v>0.12130263817599</v>
+        <v>0.1422933719061933</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0360366323290334</v>
+        <v>0.04924893132308987</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1565780860.543455</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4859745753.99201</v>
+        <v>3877738969.18209</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2063471044429235</v>
+        <v>0.162773446196558</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0294952147831861</v>
+        <v>0.02114345463625691</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2429872889.786967</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1358253229.745337</v>
+        <v>1502258415.907713</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1282554133464186</v>
+        <v>0.1147099685301064</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05545073339073581</v>
+        <v>0.05386604085652558</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>679126678.080614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4590515786.712009</v>
+        <v>4308377349.36608</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1124139533768892</v>
+        <v>0.1138453642991792</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02602803505806391</v>
+        <v>0.02622517908908844</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2295258031.25275</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1377873556.91327</v>
+        <v>1756763526.628369</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1801765779418326</v>
+        <v>0.1550550036931488</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03425806611344565</v>
+        <v>0.03476128211608263</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>688936820.6833525</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3758989817.050786</v>
+        <v>4500331137.692789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1197292309574528</v>
+        <v>0.1008298697385433</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04400916097675786</v>
+        <v>0.03188566014977045</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1879494896.050089</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3188203778.759041</v>
+        <v>3537865485.940189</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1251382855925352</v>
+        <v>0.1604360934883229</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02921073266251895</v>
+        <v>0.02664209980336513</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>38</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1594101979.416583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2048466579.552351</v>
+        <v>3241764664.16184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1451316554877726</v>
+        <v>0.1727350961043569</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0229074776277265</v>
+        <v>0.0249201697402675</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1024233359.921124</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1518877913.50964</v>
+        <v>1776946380.287534</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1468058018909972</v>
+        <v>0.1906931343629689</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03428227560488765</v>
+        <v>0.04369481866131419</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>759438942.5591793</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3694751020.601898</v>
+        <v>3961321572.57402</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1064094102605144</v>
+        <v>0.08890342780473159</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0346804002854919</v>
+        <v>0.03611758698294583</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1847375586.255473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5078751130.191948</v>
+        <v>3990545854.691798</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1214299504246207</v>
+        <v>0.1274635839729431</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02149696314833953</v>
+        <v>0.03036368661928929</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>39</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2539375676.7863</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5487688646.83087</v>
+        <v>5762380293.917221</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1467067478261436</v>
+        <v>0.1119475482204887</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02703023737833474</v>
+        <v>0.02568854583381161</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>45</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2743844253.164007</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5118876117.656827</v>
+        <v>4163374659.779546</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1075737240542981</v>
+        <v>0.1253631851555175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03897532496715343</v>
+        <v>0.03429147684923901</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>36</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2559438092.339861</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2211559893.075344</v>
+        <v>2472200052.539554</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1016236671965283</v>
+        <v>0.0805617516882831</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04351675692405862</v>
+        <v>0.05019008429681125</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1105780031.496428</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4233989590.378821</v>
+        <v>5649991335.953903</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1455057221582484</v>
+        <v>0.122921887230521</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04274822664823559</v>
+        <v>0.03327733578597864</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>39</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2116994805.112748</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1783604171.130445</v>
+        <v>1656479110.919652</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1289937252606997</v>
+        <v>0.1226482752094584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05542222320497112</v>
+        <v>0.0385289540829139</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>891802062.4890276</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2627364069.248034</v>
+        <v>2880300064.269279</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08352548086391558</v>
+        <v>0.07972663348021751</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03013995145623064</v>
+        <v>0.04400618742555373</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>35</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1313681987.301032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4448865451.200452</v>
+        <v>4686093976.34439</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1183072603725956</v>
+        <v>0.1858855832064265</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02303231992573558</v>
+        <v>0.02651433551672527</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>45</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2224432790.109245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1406786107.947574</v>
+        <v>1706969760.182056</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09472833892615928</v>
+        <v>0.09823891776843911</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04897167850834388</v>
+        <v>0.05159077534118642</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>703393095.9613231</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2650824766.390265</v>
+        <v>2231169886.736248</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08800894044427862</v>
+        <v>0.09147372514864424</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0491300559372094</v>
+        <v>0.03400649097541429</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>47</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1325412411.09067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3204512095.038908</v>
+        <v>3509365972.650766</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1186834918524266</v>
+        <v>0.117319092841535</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03035107308691885</v>
+        <v>0.02312028833024888</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>42</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1602256095.183558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2382381326.625765</v>
+        <v>1684528482.002479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108923877206674</v>
+        <v>0.1607564614346544</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03077694837567813</v>
+        <v>0.03607082220244329</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1191190591.63945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4004462442.855438</v>
+        <v>3286277003.093441</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247985955820583</v>
+        <v>0.07730482644982735</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02667020960446893</v>
+        <v>0.02497036867320062</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2002231206.291756</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2228447503.971648</v>
+        <v>1987930418.146071</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1162563665727974</v>
+        <v>0.124753775202882</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0193656315055264</v>
+        <v>0.01922599229740501</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1114223847.221231</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3440877045.26375</v>
+        <v>3996814030.795094</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09098315524863487</v>
+        <v>0.1045152219872315</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04127351383813491</v>
+        <v>0.05176386428633444</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>43</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1720438528.340881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1484982354.645826</v>
+        <v>1789906101.035837</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1400567933410808</v>
+        <v>0.1390507602058368</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04019250879111574</v>
+        <v>0.02609780705085979</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>742491208.8725418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4168263542.056344</v>
+        <v>3705713874.19987</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1025103316099935</v>
+        <v>0.1006819375085447</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03850057816566833</v>
+        <v>0.02745763500910599</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2084131778.818125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4769043585.679325</v>
+        <v>4028959486.041677</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09209180904320687</v>
+        <v>0.1261163794715256</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02065226689267732</v>
+        <v>0.02207102988332489</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2384521784.569648</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4925604452.148913</v>
+        <v>5229084683.522818</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1524242740144504</v>
+        <v>0.1907469476279458</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02955823727140824</v>
+        <v>0.02556553034476283</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2462802214.133822</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1834524022.865692</v>
+        <v>1866005537.426724</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1248711539983764</v>
+        <v>0.1349596962500431</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03208286577911379</v>
+        <v>0.0315792498534326</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>917261976.0953779</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2566453400.26604</v>
+        <v>2019484114.082523</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1209081981916849</v>
+        <v>0.08602815933643855</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04126307185917212</v>
+        <v>0.05055970221915089</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1283226622.116266</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2522715843.047158</v>
+        <v>2796309668.947273</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1709121175248295</v>
+        <v>0.1323350270406728</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04614786955799868</v>
+        <v>0.03866326346565552</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>47</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1261357928.929686</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2607293481.187703</v>
+        <v>1734225174.746139</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1323371544175667</v>
+        <v>0.1188744368722195</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01805189648097138</v>
+        <v>0.018031753890721</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1303646852.625708</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1440370322.12949</v>
+        <v>1051591166.621337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1694141949942462</v>
+        <v>0.1273428732226198</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03827208289600783</v>
+        <v>0.04111416037037526</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>720185278.2301815</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2791201979.505877</v>
+        <v>3548979624.038134</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1602917424595945</v>
+        <v>0.1439255633876915</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03204173906950021</v>
+        <v>0.03776739130131352</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>49</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1395600999.507599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3201605805.301172</v>
+        <v>2515975739.172385</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1398269653281942</v>
+        <v>0.1582303308787092</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03062993437787359</v>
+        <v>0.02788116655278388</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>43</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1600802925.931417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1783377974.257907</v>
+        <v>1845847362.358984</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1218750414218631</v>
+        <v>0.1221731605858196</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0562659228199426</v>
+        <v>0.05008335345044046</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>891689017.6753025</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1325423373.591025</v>
+        <v>1964646007.865235</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1959783600807114</v>
+        <v>0.1346660018849926</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04076528990481207</v>
+        <v>0.04501729421419248</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>662711748.9398427</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1842586317.674123</v>
+        <v>2586391619.334961</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08693581406282412</v>
+        <v>0.1066498955434634</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02960359455401291</v>
+        <v>0.03620713282391821</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>921293093.0620306</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3267819873.660146</v>
+        <v>4939296109.462179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1003788611188988</v>
+        <v>0.09025997142259225</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04594441847778143</v>
+        <v>0.0533803964860598</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>37</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1633909984.715118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2000510887.972745</v>
+        <v>1896894811.930581</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1207958538265431</v>
+        <v>0.1425870838549204</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03793306938457151</v>
+        <v>0.04205113653116904</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1000255442.362085</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2562858800.307024</v>
+        <v>3098061493.981633</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08974792423537152</v>
+        <v>0.134231169626878</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03989972434297039</v>
+        <v>0.03229388669797784</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>30</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1281429431.647149</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2039335041.284817</v>
+        <v>1450129646.318214</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1080139865925777</v>
+        <v>0.1279449158824042</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03508852738724869</v>
+        <v>0.04306357049279483</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1019667503.367541</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4240367165.271562</v>
+        <v>3569207922.550794</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317107548383554</v>
+        <v>0.1666883380491809</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02893360731297165</v>
+        <v>0.02080054419264555</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>42</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2120183658.29693</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3438007454.692837</v>
+        <v>3392845939.811314</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08872771815405743</v>
+        <v>0.1265319049172723</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02805729359906593</v>
+        <v>0.02522422023370067</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>33</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1719003741.687898</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3099617755.600329</v>
+        <v>2267125817.067946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1428915088683045</v>
+        <v>0.1091809529777709</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02161829010390086</v>
+        <v>0.02361997506665254</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>37</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1549808870.924514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3334660218.249473</v>
+        <v>4580331090.445348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1401662360404841</v>
+        <v>0.1435440746947153</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0190438936071252</v>
+        <v>0.02018375891438946</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>38</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1667330126.647049</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2294095982.401091</v>
+        <v>2875622656.45096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2129600733981065</v>
+        <v>0.1463143053197561</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04205400014881883</v>
+        <v>0.04358035896435985</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>52</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1147047986.917162</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_124.xlsx
+++ b/output/fit_clients/fit_round_124.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1780132869.995816</v>
+        <v>2397125431.940575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07271521735310667</v>
+        <v>0.08597259820919648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03727938822926865</v>
+        <v>0.04540902771394315</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1759412792.222196</v>
+        <v>2641645057.31096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1808913088270161</v>
+        <v>0.1494487375203301</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04451394306575876</v>
+        <v>0.0333771733159878</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5050339367.414055</v>
+        <v>3357541571.965311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.153000540780949</v>
+        <v>0.1596340043844562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03658594976122954</v>
+        <v>0.03183654115547407</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3231666874.422514</v>
+        <v>3277176502.711812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021932412139857</v>
+        <v>0.1006463405632276</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03681262350385914</v>
+        <v>0.04597611263673441</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2768413011.718584</v>
+        <v>2573148038.475692</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1491814939023987</v>
+        <v>0.1084598421340305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04599826127810906</v>
+        <v>0.05309175241489229</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3131125894.347153</v>
+        <v>2140655160.190182</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09522842626988642</v>
+        <v>0.08313616152994491</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03920445417399206</v>
+        <v>0.0366870183788847</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3037757096.427558</v>
+        <v>2408809481.581763</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1697218482661584</v>
+        <v>0.1575868980807197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03015570448979567</v>
+        <v>0.02230991715125386</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2120022533.196615</v>
+        <v>1559776651.392828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1737535523017253</v>
+        <v>0.1307728297721684</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02447118004059538</v>
+        <v>0.02401117062296049</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4118770675.331749</v>
+        <v>3949727660.189205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1866377598691512</v>
+        <v>0.1765243223554808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03744018950353999</v>
+        <v>0.03822414015685439</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3802240954.475003</v>
+        <v>4252906739.521863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1669385913090044</v>
+        <v>0.1313020394731451</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04534210697019574</v>
+        <v>0.03537374610811211</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2368851139.703829</v>
+        <v>2472130610.394094</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1299861044762332</v>
+        <v>0.1985986853229796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04779518936321055</v>
+        <v>0.04223287519355137</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5120781569.130237</v>
+        <v>4234208097.478308</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07487392540488526</v>
+        <v>0.08851232630514058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02752147559960691</v>
+        <v>0.02761441593267235</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3882198656.545926</v>
+        <v>3866978687.736311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1551144450276419</v>
+        <v>0.163847988394259</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04320135128612185</v>
+        <v>0.03789708664523176</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1275245302.98245</v>
+        <v>1815462093.924991</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07386984062914502</v>
+        <v>0.08649461928905371</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04744331866241636</v>
+        <v>0.03460401191164127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131544483.38684</v>
+        <v>2647541278.879065</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08611239141338647</v>
+        <v>0.1022698475973377</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03314621550722145</v>
+        <v>0.03583588763097775</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3895745899.85964</v>
+        <v>3443849825.285256</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1472157540308699</v>
+        <v>0.1746446221247528</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03406485808853247</v>
+        <v>0.05242680927532389</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2458779772.815862</v>
+        <v>3445972207.810377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1670583102818432</v>
+        <v>0.1547276278138827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02268522230409472</v>
+        <v>0.02383690454728431</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065301862.274555</v>
+        <v>1117408709.751987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1490477568903894</v>
+        <v>0.1165302678368211</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01767626795574015</v>
+        <v>0.02538595799761214</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2043527840.504695</v>
+        <v>2431013987.437283</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1101510125851438</v>
+        <v>0.1056988361595302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02947494543957384</v>
+        <v>0.02655723721847694</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1967600616.971861</v>
+        <v>1981539855.892481</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08379509882019588</v>
+        <v>0.07363063129902342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04589035716946583</v>
+        <v>0.04564528841518864</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4029438515.302964</v>
+        <v>4050117982.115075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1116440671086877</v>
+        <v>0.1194709294223269</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04457431722764393</v>
+        <v>0.03488827328689817</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1183950654.518276</v>
+        <v>1460625350.01451</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1450977875562345</v>
+        <v>0.1807246792865609</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04013430406701034</v>
+        <v>0.04138369111448536</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2885387960.115119</v>
+        <v>3906072669.109155</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1485276479084148</v>
+        <v>0.09178858669570819</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02560453064208144</v>
+        <v>0.03544969775811173</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1362316526.348317</v>
+        <v>1066564948.785033</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1124452921000198</v>
+        <v>0.09093174457347038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02903874023603902</v>
+        <v>0.02132281445827556</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1411656762.482276</v>
+        <v>1186213241.287118</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08533426946750712</v>
+        <v>0.07860555769407894</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0367156935737328</v>
+        <v>0.03560394172560273</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3310564628.924637</v>
+        <v>3101202597.310873</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1195047538626681</v>
+        <v>0.1316639989285503</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01961965322358097</v>
+        <v>0.02070800384889656</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2587586976.149356</v>
+        <v>3708840569.730963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1038712730709896</v>
+        <v>0.1519386218653351</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04606199266509179</v>
+        <v>0.04288781080500859</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4340936821.237456</v>
+        <v>3980579930.490451</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1225885764708382</v>
+        <v>0.1217544014471255</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02891732413891367</v>
+        <v>0.04012268408600015</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2188133346.221957</v>
+        <v>1910853674.566452</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1302523837056116</v>
+        <v>0.08992945034190671</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0357978145238276</v>
+        <v>0.03450991950842988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1021505323.409345</v>
+        <v>1373981806.641041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0696531445151177</v>
+        <v>0.08089743607818957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04080737551506154</v>
+        <v>0.0390335194646059</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1555785236.984076</v>
+        <v>1452563155.498736</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1160352490155022</v>
+        <v>0.08172005902472244</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03804908901179965</v>
+        <v>0.03018506900459073</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2417404027.20817</v>
+        <v>2719694307.711022</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1660111695941526</v>
+        <v>0.1768750014304363</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05862213713172786</v>
+        <v>0.05422110576333547</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1085303648.557556</v>
+        <v>1412125286.719986</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1175807792101514</v>
+        <v>0.08162645699532882</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01894926335533365</v>
+        <v>0.0236700302886777</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268139125.035542</v>
+        <v>1017309772.183778</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09697174439223949</v>
+        <v>0.09888889246422168</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03024075563529156</v>
+        <v>0.02820920640675691</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2655694358.163275</v>
+        <v>2297584888.375869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1636149642829245</v>
+        <v>0.1295470972699774</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02618675784108145</v>
+        <v>0.02809774583755844</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2002865865.190414</v>
+        <v>1987830309.031479</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08493148781640798</v>
+        <v>0.09285547656017587</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03902996403240171</v>
+        <v>0.03669853380326875</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1825452283.424807</v>
+        <v>1376165782.437998</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1021076162525071</v>
+        <v>0.08614970033662903</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02712525374317573</v>
+        <v>0.03105824387637479</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2138076611.625192</v>
+        <v>2082936744.696244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1479872405878726</v>
+        <v>0.1664025129159888</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02904543930832624</v>
+        <v>0.0228231146542309</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1497547390.51774</v>
+        <v>1546364996.681242</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1594469965965849</v>
+        <v>0.154950791612991</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04354587835998962</v>
+        <v>0.05656670336980923</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2126195149.744245</v>
+        <v>2054941765.198686</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1185191601919844</v>
+        <v>0.1176985269969913</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04600889854018807</v>
+        <v>0.03840899828606684</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3087625525.377711</v>
+        <v>3788317932.586322</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1173761893258348</v>
+        <v>0.1146145665724348</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02826796355652681</v>
+        <v>0.03466167972382939</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2649990974.927784</v>
+        <v>2077991952.91263</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2030679682110646</v>
+        <v>0.1997739556072278</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0220985352222072</v>
+        <v>0.02106669532264031</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1571869674.455915</v>
+        <v>2080923581.716539</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06816807865184756</v>
+        <v>0.06328739843726373</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03310069641929093</v>
+        <v>0.03014098549470023</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2136321218.361295</v>
+        <v>2213060737.261795</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1773870265333303</v>
+        <v>0.1717357087405164</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0376538660877855</v>
+        <v>0.05577886843428941</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5144632371.165964</v>
+        <v>4618289527.289205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1311147724650829</v>
+        <v>0.145166835272488</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05306196280504032</v>
+        <v>0.04472651227089847</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3382238873.284842</v>
+        <v>4685232089.879398</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2028287462858974</v>
+        <v>0.1329330974212594</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05322719727740174</v>
+        <v>0.04564551536096711</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3294292903.818191</v>
+        <v>3565320084.024216</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08635270618846759</v>
+        <v>0.1025173508165643</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02884809715951978</v>
+        <v>0.02708241384364718</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1812981830.977398</v>
+        <v>1874288888.260378</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1363213387002174</v>
+        <v>0.1867597938009121</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0280725137942802</v>
+        <v>0.03489812588854434</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3146567220.3515</v>
+        <v>3826865887.73417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1547858364555946</v>
+        <v>0.1672319273284557</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03730820291625538</v>
+        <v>0.03570393637996595</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1201994074.075113</v>
+        <v>1510876888.703501</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1474119284673675</v>
+        <v>0.1513961614160764</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05324637304096402</v>
+        <v>0.04653142614644461</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4478355678.128678</v>
+        <v>5207769104.63127</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031045194439165</v>
+        <v>0.1039120919433444</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06176034266008088</v>
+        <v>0.05100185707072116</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3052200644.138022</v>
+        <v>2655438488.054632</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1379464172670491</v>
+        <v>0.1832704727882754</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0260793887792165</v>
+        <v>0.02634058517691049</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4517089670.106273</v>
+        <v>4085167675.939986</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1422933719061933</v>
+        <v>0.1565174590739331</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04924893132308987</v>
+        <v>0.05012800208010915</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3877738969.18209</v>
+        <v>4350736267.20729</v>
       </c>
       <c r="F55" t="n">
-        <v>0.162773446196558</v>
+        <v>0.2237384352003309</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02114345463625691</v>
+        <v>0.02723412539414091</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1502258415.907713</v>
+        <v>1672390037.415895</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1147099685301064</v>
+        <v>0.1542490387656217</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05386604085652558</v>
+        <v>0.05439413887959427</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4308377349.36608</v>
+        <v>3355608513.452567</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1138453642991792</v>
+        <v>0.1654600546905682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02622517908908844</v>
+        <v>0.02223764832647334</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1756763526.628369</v>
+        <v>1882416861.629859</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1550550036931488</v>
+        <v>0.1814636350272657</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03476128211608263</v>
+        <v>0.03186248303064856</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4500331137.692789</v>
+        <v>4485540038.363692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1008298697385433</v>
+        <v>0.1235473944287895</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03188566014977045</v>
+        <v>0.04926107269106601</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3537865485.940189</v>
+        <v>3171393155.019613</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1604360934883229</v>
+        <v>0.1722578401569276</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02664209980336513</v>
+        <v>0.02726736055665062</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3241764664.16184</v>
+        <v>2283125724.858084</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1727350961043569</v>
+        <v>0.1165714397588829</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0249201697402675</v>
+        <v>0.03236271479623861</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1776946380.287534</v>
+        <v>1361252051.037878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1906931343629689</v>
+        <v>0.1795221579263182</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04369481866131419</v>
+        <v>0.0305785616245697</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3961321572.57402</v>
+        <v>3844569853.360035</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08890342780473159</v>
+        <v>0.1000942275414677</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03611758698294583</v>
+        <v>0.04145581448863659</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3990545854.691798</v>
+        <v>4491748311.928215</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1274635839729431</v>
+        <v>0.1255279758425672</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03036368661928929</v>
+        <v>0.03437041255145454</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5762380293.917221</v>
+        <v>5617001313.641369</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1119475482204887</v>
+        <v>0.1197474359306406</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02568854583381161</v>
+        <v>0.02236341454711144</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4163374659.779546</v>
+        <v>5133741955.203716</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1253631851555175</v>
+        <v>0.09817821305059345</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03429147684923901</v>
+        <v>0.03335133215550084</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2472200052.539554</v>
+        <v>3474224239.17603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0805617516882831</v>
+        <v>0.1025998499659923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05019008429681125</v>
+        <v>0.05136004057597274</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5649991335.953903</v>
+        <v>4096352770.294354</v>
       </c>
       <c r="F68" t="n">
-        <v>0.122921887230521</v>
+        <v>0.106961831791305</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03327733578597864</v>
+        <v>0.03490264498840741</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1656479110.919652</v>
+        <v>1623695530.683172</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1226482752094584</v>
+        <v>0.1726480022227167</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0385289540829139</v>
+        <v>0.05167161211533047</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2880300064.269279</v>
+        <v>2808145191.072552</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07972663348021751</v>
+        <v>0.08559639174270357</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04400618742555373</v>
+        <v>0.04132133980268392</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4686093976.34439</v>
+        <v>3459724056.416054</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1858855832064265</v>
+        <v>0.1705424356315379</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02651433551672527</v>
+        <v>0.02849303998554434</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1706969760.182056</v>
+        <v>1706470501.494998</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09823891776843911</v>
+        <v>0.09235034049558834</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05159077534118642</v>
+        <v>0.04279333370097747</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2231169886.736248</v>
+        <v>3137229266.459422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09147372514864424</v>
+        <v>0.105541647786451</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03400649097541429</v>
+        <v>0.0467536407195023</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3509365972.650766</v>
+        <v>3851746465.290103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.117319092841535</v>
+        <v>0.1707586329871933</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02312028833024888</v>
+        <v>0.02212241958510019</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1684528482.002479</v>
+        <v>1771179098.878612</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1607564614346544</v>
+        <v>0.1392351313935568</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03607082220244329</v>
+        <v>0.02459985934324755</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3286277003.093441</v>
+        <v>3646274166.090544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07730482644982735</v>
+        <v>0.08886130077653798</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02497036867320062</v>
+        <v>0.03274994240404436</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1987930418.146071</v>
+        <v>2091019435.104703</v>
       </c>
       <c r="F77" t="n">
-        <v>0.124753775202882</v>
+        <v>0.1614464366113956</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01922599229740501</v>
+        <v>0.0227025026262351</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3996814030.795094</v>
+        <v>3690557556.280007</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1045152219872315</v>
+        <v>0.1015577096294267</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05176386428633444</v>
+        <v>0.04345383432153582</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1789906101.035837</v>
+        <v>1534882368.268764</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1390507602058368</v>
+        <v>0.1279000762192281</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02609780705085979</v>
+        <v>0.03193565369888249</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3705713874.19987</v>
+        <v>3714886855.29459</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1006819375085447</v>
+        <v>0.08152286530250066</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02745763500910599</v>
+        <v>0.02493858788769637</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4028959486.041677</v>
+        <v>5014960907.604753</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1261163794715256</v>
+        <v>0.09890710484677114</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02207102988332489</v>
+        <v>0.02440061747916044</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5229084683.522818</v>
+        <v>4353868308.649072</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1907469476279458</v>
+        <v>0.1689817356880273</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02556553034476283</v>
+        <v>0.01911906101619291</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1866005537.426724</v>
+        <v>1721331200.929857</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1349596962500431</v>
+        <v>0.156356106092339</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0315792498534326</v>
+        <v>0.03696428400664385</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2019484114.082523</v>
+        <v>1658470513.048671</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08602815933643855</v>
+        <v>0.1086588343293728</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05055970221915089</v>
+        <v>0.03963778130305207</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2796309668.947273</v>
+        <v>2522233555.844951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1323350270406728</v>
+        <v>0.172740486857392</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03866326346565552</v>
+        <v>0.05243043272216552</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1734225174.746139</v>
+        <v>2625384261.516173</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1188744368722195</v>
+        <v>0.1563708127327085</v>
       </c>
       <c r="G86" t="n">
-        <v>0.018031753890721</v>
+        <v>0.02609852025695586</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1051591166.621337</v>
+        <v>1457210233.156931</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1273428732226198</v>
+        <v>0.1407832206240837</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04111416037037526</v>
+        <v>0.02698712966247058</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3548979624.038134</v>
+        <v>3358297708.824479</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1439255633876915</v>
+        <v>0.1575974821434397</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03776739130131352</v>
+        <v>0.03065665609039452</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2515975739.172385</v>
+        <v>2949869220.222905</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1582303308787092</v>
+        <v>0.1056786378547019</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02788116655278388</v>
+        <v>0.03816603448594006</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1845847362.358984</v>
+        <v>2017799336.445006</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1221731605858196</v>
+        <v>0.08964402629341509</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05008335345044046</v>
+        <v>0.04771995857693893</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1964646007.865235</v>
+        <v>1341678630.510467</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1346660018849926</v>
+        <v>0.1714942377197833</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04501729421419248</v>
+        <v>0.05714496018753345</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2586391619.334961</v>
+        <v>2162559487.475551</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1066498955434634</v>
+        <v>0.08831811370006531</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03620713282391821</v>
+        <v>0.04129898039831265</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4939296109.462179</v>
+        <v>5044509842.813911</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09025997142259225</v>
+        <v>0.1143139323901335</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0533803964860598</v>
+        <v>0.03662511434731298</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1896894811.930581</v>
+        <v>2307590760.010649</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1425870838549204</v>
+        <v>0.131599164444969</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04205113653116904</v>
+        <v>0.03647988216425018</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3098061493.981633</v>
+        <v>2343722438.722764</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134231169626878</v>
+        <v>0.1266437926065824</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03229388669797784</v>
+        <v>0.03728583266241361</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1450129646.318214</v>
+        <v>1505734762.601774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1279449158824042</v>
+        <v>0.1218738471441313</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04306357049279483</v>
+        <v>0.03772704405102176</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3569207922.550794</v>
+        <v>4035103105.491256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1666883380491809</v>
+        <v>0.1140319519537565</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02080054419264555</v>
+        <v>0.01771031451023015</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3392845939.811314</v>
+        <v>2768954202.484751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1265319049172723</v>
+        <v>0.1016145640762844</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02522422023370067</v>
+        <v>0.02219893385569078</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2267125817.067946</v>
+        <v>3182791982.933292</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1091809529777709</v>
+        <v>0.13096545382839</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02361997506665254</v>
+        <v>0.02523051712646945</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4580331090.445348</v>
+        <v>4060051040.211489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1435440746947153</v>
+        <v>0.1439342275377481</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02018375891438946</v>
+        <v>0.02470388159175887</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2875622656.45096</v>
+        <v>3319153114.359829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1463143053197561</v>
+        <v>0.198939497833253</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04358035896435985</v>
+        <v>0.04500377975823862</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_124.xlsx
+++ b/output/fit_clients/fit_round_124.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2397125431.940575</v>
+        <v>2072095341.126017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08597259820919648</v>
+        <v>0.08173027671840397</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04540902771394315</v>
+        <v>0.03218717492741294</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2641645057.31096</v>
+        <v>1614620936.72892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1494487375203301</v>
+        <v>0.1481318206941958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0333771733159878</v>
+        <v>0.0403146924448905</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3357541571.965311</v>
+        <v>5073968788.729541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1596340043844562</v>
+        <v>0.1027646037256212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03183654115547407</v>
+        <v>0.03695339746619072</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>124</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3277176502.711812</v>
+        <v>3308452293.418586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1006463405632276</v>
+        <v>0.07131397825328818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04597611263673441</v>
+        <v>0.04726397726703577</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
+        <v>123</v>
+      </c>
+      <c r="K5" t="n">
+        <v>92.45450170603071</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2573148038.475692</v>
+        <v>1799500306.133545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1084598421340305</v>
+        <v>0.1258965857075546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05309175241489229</v>
+        <v>0.03926537246567404</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2140655160.190182</v>
+        <v>2191662737.753389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08313616152994491</v>
+        <v>0.1015234678498001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0366870183788847</v>
+        <v>0.03940392018431683</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2408809481.581763</v>
+        <v>2624540825.373408</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1575868980807197</v>
+        <v>0.1965310065405506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02230991715125386</v>
+        <v>0.0298619524882062</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>123</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52.65795772592733</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1559776651.392828</v>
+        <v>1886560449.091933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1307728297721684</v>
+        <v>0.1944489022892979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02401117062296049</v>
+        <v>0.03489025162163131</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3949727660.189205</v>
+        <v>5330121864.013713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1765243223554808</v>
+        <v>0.2125715847471294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03822414015685439</v>
+        <v>0.03313000038299993</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>113</v>
+      </c>
+      <c r="J10" t="n">
+        <v>124</v>
+      </c>
+      <c r="K10" t="n">
+        <v>164.7176497360973</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4252906739.521863</v>
+        <v>3230875274.77029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1313020394731451</v>
+        <v>0.1776074496640115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03537374610811211</v>
+        <v>0.04347528814720572</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>53</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86.1506721052184</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2472130610.394094</v>
+        <v>2187516825.836532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1985986853229796</v>
+        <v>0.1426985296408032</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04223287519355137</v>
+        <v>0.04582860804164986</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4234208097.478308</v>
+        <v>3892341122.127011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08851232630514058</v>
+        <v>0.09784429445564709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02761441593267235</v>
+        <v>0.0298090041127445</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" t="n">
+        <v>124</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3866978687.736311</v>
+        <v>3548190820.613055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.163847988394259</v>
+        <v>0.1317355919828193</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03789708664523176</v>
+        <v>0.03579543607939362</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1815462093.924991</v>
+        <v>1235684114.013169</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08649461928905371</v>
+        <v>0.08625356409316846</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03460401191164127</v>
+        <v>0.0357899705366265</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2647541278.879065</v>
+        <v>1826864650.506826</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1022698475973377</v>
+        <v>0.08061804635523312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03583588763097775</v>
+        <v>0.04817118778194224</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3443849825.285256</v>
+        <v>4444241667.918455</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1746446221247528</v>
+        <v>0.1056697637174103</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05242680927532389</v>
+        <v>0.05162764704064692</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>60</v>
+      </c>
+      <c r="J17" t="n">
+        <v>123</v>
+      </c>
+      <c r="K17" t="n">
+        <v>133.2890395245153</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3445972207.810377</v>
+        <v>3614928265.538387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1547276278138827</v>
+        <v>0.1241105705110453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02383690454728431</v>
+        <v>0.02446983549868093</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>123</v>
+      </c>
+      <c r="K18" t="n">
+        <v>96.22807485211287</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1117408709.751987</v>
+        <v>1169481528.343717</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1165302678368211</v>
+        <v>0.1600453411294255</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02538595799761214</v>
+        <v>0.02542594047182259</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2431013987.437283</v>
+        <v>2791124454.719462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056988361595302</v>
+        <v>0.1553178250287054</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02655723721847694</v>
+        <v>0.01936968477148887</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1981539855.892481</v>
+        <v>1978519614.80444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07363063129902342</v>
+        <v>0.06281480374856113</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04564528841518864</v>
+        <v>0.03009738448476852</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4050117982.115075</v>
+        <v>3012573925.682391</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1194709294223269</v>
+        <v>0.1207186904216192</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03488827328689817</v>
+        <v>0.0354558489056714</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="n">
+        <v>63.01765375646257</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1460625350.01451</v>
+        <v>1556913587.883955</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1807246792865609</v>
+        <v>0.1487413749484719</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04138369111448536</v>
+        <v>0.0488254781890518</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3906072669.109155</v>
+        <v>3015787323.106795</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09178858669570819</v>
+        <v>0.1369473029580807</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03544969775811173</v>
+        <v>0.02412499629688719</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>121</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1066564948.785033</v>
+        <v>1450104558.436606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09093174457347038</v>
+        <v>0.08930791300382862</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02132281445827556</v>
+        <v>0.02456175671923092</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1186213241.287118</v>
+        <v>902953625.5031446</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07860555769407894</v>
+        <v>0.0909318773334295</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03560394172560273</v>
+        <v>0.03636588434127856</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3101202597.310873</v>
+        <v>2984059211.634461</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1316639989285503</v>
+        <v>0.1120348751477968</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02070800384889656</v>
+        <v>0.02577639613744659</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>49</v>
+      </c>
+      <c r="J27" t="n">
+        <v>122</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3708840569.730963</v>
+        <v>2847317751.965029</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1519386218653351</v>
+        <v>0.1023342928430147</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04288781080500859</v>
+        <v>0.03497768958078589</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1460,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3980579930.490451</v>
+        <v>4421344445.680918</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1217544014471255</v>
+        <v>0.1503355391911597</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04012268408600015</v>
+        <v>0.03412181427102973</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>114</v>
+      </c>
+      <c r="J29" t="n">
+        <v>124</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1910853674.566452</v>
+        <v>2213810742.92488</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08992945034190671</v>
+        <v>0.1060409848551232</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03450991950842988</v>
+        <v>0.03840524723426283</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1373981806.641041</v>
+        <v>1364177231.793501</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08089743607818957</v>
+        <v>0.06910625860818838</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0390335194646059</v>
+        <v>0.04405062430366312</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452563155.498736</v>
+        <v>1544490714.428939</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08172005902472244</v>
+        <v>0.07473301457274849</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03018506900459073</v>
+        <v>0.03200536406703487</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2719694307.711022</v>
+        <v>3028379021.310462</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1768750014304363</v>
+        <v>0.1872631096678528</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05422110576333547</v>
+        <v>0.05349624881651361</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1412125286.719986</v>
+        <v>1416340760.923045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08162645699532882</v>
+        <v>0.1012506376443481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0236700302886777</v>
+        <v>0.01916541737972416</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1017309772.183778</v>
+        <v>988400563.9309959</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09888889246422168</v>
+        <v>0.073238641577343</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02820920640675691</v>
+        <v>0.02844621949852442</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2297584888.375869</v>
+        <v>3026182774.535625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1295470972699774</v>
+        <v>0.1638398306104377</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02809774583755844</v>
+        <v>0.02582880958392585</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1987830309.031479</v>
+        <v>1866838962.077677</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09285547656017587</v>
+        <v>0.08005173255698435</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03669853380326875</v>
+        <v>0.04108520330258335</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1376165782.437998</v>
+        <v>1823856162.442666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08614970033662903</v>
+        <v>0.09221034033030187</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03105824387637479</v>
+        <v>0.03136501402643258</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2082936744.696244</v>
+        <v>1522544293.618938</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1664025129159888</v>
+        <v>0.1636996116747282</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0228231146542309</v>
+        <v>0.02894945292628133</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1546364996.681242</v>
+        <v>1344324175.375383</v>
       </c>
       <c r="F40" t="n">
-        <v>0.154950791612991</v>
+        <v>0.1042147902545988</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05656670336980923</v>
+        <v>0.05691664014621261</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2054941765.198686</v>
+        <v>2185566555.5379</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1176985269969913</v>
+        <v>0.1313221679297267</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03840899828606684</v>
+        <v>0.03774781007914933</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3788317932.586322</v>
+        <v>3661438268.894949</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1146145665724348</v>
+        <v>0.1265914064820482</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03466167972382939</v>
+        <v>0.03225291335895161</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44</v>
+      </c>
+      <c r="J42" t="n">
+        <v>124</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2077991952.91263</v>
+        <v>2119655570.273563</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1997739556072278</v>
+        <v>0.1324810959225965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02106669532264031</v>
+        <v>0.01688926163247154</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2080923581.716539</v>
+        <v>2062905353.319221</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06328739843726373</v>
+        <v>0.07504430971330195</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03014098549470023</v>
+        <v>0.02420063556101754</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2213060737.261795</v>
+        <v>2189627444.093102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717357087405164</v>
+        <v>0.1396502486089498</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05577886843428941</v>
+        <v>0.05462952795148993</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4618289527.289205</v>
+        <v>5633805657.632723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.145166835272488</v>
+        <v>0.1700686728772526</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04472651227089847</v>
+        <v>0.05105699184666421</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>71</v>
+      </c>
+      <c r="J46" t="n">
+        <v>124</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4685232089.879398</v>
+        <v>5078431027.503659</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1329330974212594</v>
+        <v>0.1297435128395863</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04564551536096711</v>
+        <v>0.05858038711876886</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>55</v>
+      </c>
+      <c r="J47" t="n">
+        <v>123</v>
+      </c>
+      <c r="K47" t="n">
+        <v>123.4476421492172</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3565320084.024216</v>
+        <v>3952756333.13117</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1025173508165643</v>
+        <v>0.0971500760587341</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02708241384364718</v>
+        <v>0.03468489599399405</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>124</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1874288888.260378</v>
+        <v>1530055670.141032</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867597938009121</v>
+        <v>0.1717072539061889</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03489812588854434</v>
+        <v>0.03598341196554182</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3826865887.73417</v>
+        <v>3700414105.343611</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1672319273284557</v>
+        <v>0.1580789841447881</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03570393637996595</v>
+        <v>0.05113927238901842</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1510876888.703501</v>
+        <v>1061414551.278672</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1513961614160764</v>
+        <v>0.1595570266615047</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04653142614644461</v>
+        <v>0.0487491038134165</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5207769104.63127</v>
+        <v>3251695713.960432</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1039120919433444</v>
+        <v>0.1217046344266305</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05100185707072116</v>
+        <v>0.0525580168855324</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>96</v>
+      </c>
+      <c r="J52" t="n">
+        <v>123</v>
+      </c>
+      <c r="K52" t="n">
+        <v>83.15320517425535</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2655438488.054632</v>
+        <v>2598571841.168114</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1832704727882754</v>
+        <v>0.1526644663299976</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02634058517691049</v>
+        <v>0.02672367282849517</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>121</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4085167675.939986</v>
+        <v>3110044056.30233</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1565174590739331</v>
+        <v>0.1101133673785966</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05012800208010915</v>
+        <v>0.03889085487442636</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>57</v>
+      </c>
+      <c r="J54" t="n">
+        <v>122</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4350736267.20729</v>
+        <v>4570178722.499136</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2237384352003309</v>
+        <v>0.1455909551253284</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02723412539414091</v>
+        <v>0.03111538444814775</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>57</v>
+      </c>
+      <c r="J55" t="n">
+        <v>123</v>
+      </c>
+      <c r="K55" t="n">
+        <v>138.1598297628265</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1672390037.415895</v>
+        <v>1735112517.712567</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1542490387656217</v>
+        <v>0.1625198256479769</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05439413887959427</v>
+        <v>0.04564011462124521</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3355608513.452567</v>
+        <v>2836086951.657575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1654600546905682</v>
+        <v>0.1330448860945914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02223764832647334</v>
+        <v>0.02256238223220393</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>48</v>
+      </c>
+      <c r="J57" t="n">
+        <v>123</v>
+      </c>
+      <c r="K57" t="n">
+        <v>58.83157966993537</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1882416861.629859</v>
+        <v>1377948951.30882</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1814636350272657</v>
+        <v>0.1681872571498972</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03186248303064856</v>
+        <v>0.02916136843687498</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4485540038.363692</v>
+        <v>4924092181.366478</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1235473944287895</v>
+        <v>0.1132559692273225</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04926107269106601</v>
+        <v>0.03584265653398237</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>60</v>
+      </c>
+      <c r="J59" t="n">
+        <v>124</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3171393155.019613</v>
+        <v>2351317050.328715</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1722578401569276</v>
+        <v>0.158962404232592</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02726736055665062</v>
+        <v>0.02448161940290482</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2283125724.858084</v>
+        <v>2453776863.156562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1165714397588829</v>
+        <v>0.1772088084644535</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03236271479623861</v>
+        <v>0.02037739376048332</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1361252051.037878</v>
+        <v>1845578654.904091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1795221579263182</v>
+        <v>0.1700598385342553</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0305785616245697</v>
+        <v>0.04435407810351094</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3844569853.360035</v>
+        <v>3604119613.018377</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000942275414677</v>
+        <v>0.1010704100487806</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04145581448863659</v>
+        <v>0.03443913885483935</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>61</v>
+      </c>
+      <c r="J63" t="n">
+        <v>124</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4491748311.928215</v>
+        <v>4339841946.649925</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1255279758425672</v>
+        <v>0.1363290562951107</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03437041255145454</v>
+        <v>0.02584115856004736</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>61</v>
+      </c>
+      <c r="J64" t="n">
+        <v>124</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5617001313.641369</v>
+        <v>4779968104.598795</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1197474359306406</v>
+        <v>0.1400385042374357</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02236341454711144</v>
+        <v>0.02014750961644073</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>103</v>
+      </c>
+      <c r="J65" t="n">
+        <v>124</v>
+      </c>
+      <c r="K65" t="n">
+        <v>154.2047359826795</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5133741955.203716</v>
+        <v>5406239534.071531</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09817821305059345</v>
+        <v>0.1579401693532962</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03335133215550084</v>
+        <v>0.03880652613545955</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>61</v>
+      </c>
+      <c r="J66" t="n">
+        <v>123</v>
+      </c>
+      <c r="K66" t="n">
+        <v>139.3640985663818</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3474224239.17603</v>
+        <v>2722563619.144423</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1025998499659923</v>
+        <v>0.065563532887896</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05136004057597274</v>
+        <v>0.03244816346082707</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4096352770.294354</v>
+        <v>4424593314.106445</v>
       </c>
       <c r="F68" t="n">
-        <v>0.106961831791305</v>
+        <v>0.1339437990530197</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03490264498840741</v>
+        <v>0.04956624781350517</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>62</v>
+      </c>
+      <c r="J68" t="n">
+        <v>124</v>
+      </c>
+      <c r="K68" t="n">
+        <v>139.7305699615786</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1623695530.683172</v>
+        <v>1578024193.893072</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1726480022227167</v>
+        <v>0.1386457957443952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05167161211533047</v>
+        <v>0.0586682241664746</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2808145191.072552</v>
+        <v>2634261819.866571</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08559639174270357</v>
+        <v>0.07732823719644867</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04132133980268392</v>
+        <v>0.04682724991555538</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3459724056.416054</v>
+        <v>5313122166.703815</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1705424356315379</v>
+        <v>0.1407537170377216</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02849303998554434</v>
+        <v>0.02291526084946613</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" t="n">
+        <v>124</v>
+      </c>
+      <c r="K71" t="n">
+        <v>151.6491172456597</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1706470501.494998</v>
+        <v>1961910785.853298</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09235034049558834</v>
+        <v>0.09285657451789156</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04279333370097747</v>
+        <v>0.03346717470318857</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3137229266.459422</v>
+        <v>2603847633.276249</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105541647786451</v>
+        <v>0.1058898695441906</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0467536407195023</v>
+        <v>0.04260271089205402</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3851746465.290103</v>
+        <v>2990089534.129912</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1707586329871933</v>
+        <v>0.1601674363788916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02212241958510019</v>
+        <v>0.02948938461221438</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="n">
+        <v>68.0078501263572</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1771179098.878612</v>
+        <v>1753523004.230124</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1392351313935568</v>
+        <v>0.1157354879066444</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02459985934324755</v>
+        <v>0.02664699746316676</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3646274166.090544</v>
+        <v>5124062217.779819</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08886130077653798</v>
+        <v>0.1173646179950337</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03274994240404436</v>
+        <v>0.02835041165779769</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>57</v>
+      </c>
+      <c r="J76" t="n">
+        <v>124</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2091019435.104703</v>
+        <v>2229559436.617287</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1614464366113956</v>
+        <v>0.1526283822088097</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0227025026262351</v>
+        <v>0.02212250324008914</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3690557556.280007</v>
+        <v>2995788644.088117</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1015577096294267</v>
+        <v>0.1024913170039368</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04345383432153582</v>
+        <v>0.04672144694071826</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>61</v>
+      </c>
+      <c r="J78" t="n">
+        <v>123</v>
+      </c>
+      <c r="K78" t="n">
+        <v>71.0495678793035</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1534882368.268764</v>
+        <v>1194425667.846639</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1279000762192281</v>
+        <v>0.1151927566736361</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03193565369888249</v>
+        <v>0.02612597824654623</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3714886855.29459</v>
+        <v>5364668599.799058</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08152286530250066</v>
+        <v>0.09092719123449257</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02493858788769637</v>
+        <v>0.02659697511181387</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>60</v>
+      </c>
+      <c r="J80" t="n">
+        <v>123</v>
+      </c>
+      <c r="K80" t="n">
+        <v>112.2325976214441</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5014960907.604753</v>
+        <v>4889078531.461246</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09890710484677114</v>
+        <v>0.1372961642732385</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02440061747916044</v>
+        <v>0.0252621528388529</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>56</v>
+      </c>
+      <c r="J81" t="n">
+        <v>123</v>
+      </c>
+      <c r="K81" t="n">
+        <v>128.0288049874471</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4353868308.649072</v>
+        <v>4647947344.086053</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1689817356880273</v>
+        <v>0.217593120155737</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01911906101619291</v>
+        <v>0.01869817122661183</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>86</v>
+      </c>
+      <c r="J82" t="n">
+        <v>124</v>
+      </c>
+      <c r="K82" t="n">
+        <v>159.0137845878606</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1721331200.929857</v>
+        <v>1843780985.744403</v>
       </c>
       <c r="F83" t="n">
-        <v>0.156356106092339</v>
+        <v>0.111803741827154</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03696428400664385</v>
+        <v>0.04232623085412444</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1658470513.048671</v>
+        <v>1811979886.10527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1086588343293728</v>
+        <v>0.07660068447495828</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03963778130305207</v>
+        <v>0.04588867946534037</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2522233555.844951</v>
+        <v>2270976149.875729</v>
       </c>
       <c r="F85" t="n">
-        <v>0.172740486857392</v>
+        <v>0.1658165515591872</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05243043272216552</v>
+        <v>0.03744137314584648</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2625384261.516173</v>
+        <v>2732249738.764099</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1563708127327085</v>
+        <v>0.1223933942759896</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02609852025695586</v>
+        <v>0.02614642616055264</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1457210233.156931</v>
+        <v>1008209616.32472</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1407832206240837</v>
+        <v>0.1580215602891809</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02698712966247058</v>
+        <v>0.03540748431200713</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3358297708.824479</v>
+        <v>2565031536.101759</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1575974821434397</v>
+        <v>0.1761131761826647</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03065665609039452</v>
+        <v>0.0291813280515704</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2949869220.222905</v>
+        <v>3167255539.309971</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1056786378547019</v>
+        <v>0.1302382658348286</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03816603448594006</v>
+        <v>0.02613141451289965</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017799336.445006</v>
+        <v>1971643312.408438</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08964402629341509</v>
+        <v>0.1155794262249718</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04771995857693893</v>
+        <v>0.04375353024269431</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1341678630.510467</v>
+        <v>2065564693.768495</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1714942377197833</v>
+        <v>0.1769127887818463</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05714496018753345</v>
+        <v>0.05716559831889704</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2162559487.475551</v>
+        <v>1909269321.766263</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08831811370006531</v>
+        <v>0.06654563325646724</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04129898039831265</v>
+        <v>0.02979808335039133</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5044509842.813911</v>
+        <v>4783013696.236189</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1143139323901335</v>
+        <v>0.1123098598613512</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03662511434731298</v>
+        <v>0.04370272867338858</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>56</v>
+      </c>
+      <c r="J93" t="n">
+        <v>124</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2307590760.010649</v>
+        <v>1726385270.92114</v>
       </c>
       <c r="F94" t="n">
-        <v>0.131599164444969</v>
+        <v>0.1027504446122836</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03647988216425018</v>
+        <v>0.03710273849806452</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2343722438.722764</v>
+        <v>2348323398.729247</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1266437926065824</v>
+        <v>0.1124546491816898</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03728583266241361</v>
+        <v>0.04004534980348608</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1505734762.601774</v>
+        <v>2132120958.649059</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1218738471441313</v>
+        <v>0.1101199693189154</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03772704405102176</v>
+        <v>0.03019509942749534</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4035103105.491256</v>
+        <v>5267502693.867312</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1140319519537565</v>
+        <v>0.1131334887076549</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01771031451023015</v>
+        <v>0.02277141662168529</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>59</v>
+      </c>
+      <c r="J97" t="n">
+        <v>124</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2768954202.484751</v>
+        <v>2471268942.885617</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1016145640762844</v>
+        <v>0.1189576173135068</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02219893385569078</v>
+        <v>0.02244473691049279</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>29</v>
+      </c>
+      <c r="J98" t="n">
+        <v>121</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3182791982.933292</v>
+        <v>3116127675.307406</v>
       </c>
       <c r="F99" t="n">
-        <v>0.13096545382839</v>
+        <v>0.1178581344373168</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02523051712646945</v>
+        <v>0.02406354747190139</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4060051040.211489</v>
+        <v>3026112376.879614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1439342275377481</v>
+        <v>0.1240814348582076</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02470388159175887</v>
+        <v>0.02608626914400362</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>51</v>
+      </c>
+      <c r="J100" t="n">
+        <v>122</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3319153114.359829</v>
+        <v>2350901513.985159</v>
       </c>
       <c r="F101" t="n">
-        <v>0.198939497833253</v>
+        <v>0.1887146410130352</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04500377975823862</v>
+        <v>0.0523012279943877</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
